--- a/data/prediction_history.xlsx
+++ b/data/prediction_history.xlsx
@@ -15,6 +15,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pred_2025-09-07_14-10-06" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pred_2025-09-07_14-17-10" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pred_2025-09-07_16-18-58" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pred_2025-09-17_21-30-07" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4632,4 +4633,179 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>home_team</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>away_team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>prob_draw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prob_homewin</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>prob_awaywin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>home_rating</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>away_rating</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>home_form</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>away_form</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>home_momentum</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>away_momentum</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>is_derby</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>home_value_eur</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>away_value_eur</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>home_avg_age</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-09-17T21:30:07</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>fc bayern munchen</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fc augsburg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HomeWin</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1645412378378072</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7439006326607457</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.09155812950144707</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31.13839876435202</v>
+      </c>
+      <c r="I2" t="n">
+        <v>41.42537269251397</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>905150000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>134825000</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="R2" t="n">
+        <v>24.82758620689655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>